--- a/evaluation/evaluation.xlsx
+++ b/evaluation/evaluation.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Auto-évaluation</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>La console affiche une barre de navigation à gauche, qui permet de naviguer vers les pages "Your apps" et "Edit your account details". La barre de navigation applique un style particulier pour indiquer la page courante.</t>
+  </si>
+  <si>
+    <t>1 (Pour des raison de cohérence dans l'esthétique de nos pages, la barre de navigation se trouve en haut de la page)</t>
   </si>
   <si>
     <t>La page "Your apps" affiche une liste de toutes les applications créées par l'utilisateur. Le contenu de la liste est conforme au mockup fourni dans la donnée du projet.</t>
@@ -289,7 +292,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="48" zoomScaleNormal="48" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -321,6 +324,9 @@
       <c r="B3" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
@@ -340,6 +346,9 @@
       <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D5" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
@@ -348,12 +357,18 @@
       <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="30.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -364,6 +379,9 @@
       <c r="B8" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
@@ -393,6 +411,9 @@
       <c r="B12" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
@@ -401,6 +422,9 @@
       <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
@@ -409,6 +433,9 @@
       <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="D14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
@@ -417,84 +444,117 @@
       <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="30.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="30.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="30.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -516,12 +576,12 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1</v>
@@ -532,7 +592,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
@@ -540,7 +600,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -551,7 +611,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -562,7 +622,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1</v>
@@ -573,7 +633,7 @@
     </row>
     <row r="34" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
@@ -584,7 +644,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
@@ -595,7 +655,7 @@
     </row>
     <row r="36" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
@@ -606,7 +666,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1</v>
@@ -633,68 +693,89 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1</v>
@@ -721,7 +802,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B51" s="1" t="n">
         <f aca="false">SUM(B9,B26,B38,B49)</f>
@@ -739,7 +820,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B55" s="1" t="n">
         <f aca="false">B51-B48-B26</f>
@@ -748,7 +829,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B56" s="5" t="n">
         <f aca="false">B55/B51*5+1</f>

--- a/evaluation/evaluation.xlsx
+++ b/evaluation/evaluation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>Auto-évaluation</t>
   </si>
@@ -80,7 +80,13 @@
     <t>Depuis la liste des applications, il est possible d'afficher la liste des utilisateurs d'une application</t>
   </si>
   <si>
+    <t>1 (après avoir posé la question, on ne peut actuellement pas encore ajouter d'utilisateurs à l'application ; la page affiche donc « No user » pour le moment)</t>
+  </si>
+  <si>
     <t>La page "List of users" permet de naviguer dans une grande quantité de données (pagination).</t>
+  </si>
+  <si>
+    <t>1 (la pagination a été réalisée sur la page des apps, étant donné qu'il n'y a pas encore d'utilisateurs liés aux applications ; cependant, nous en avons compris les principes)</t>
   </si>
   <si>
     <t>Depuis la console, il est possible d'accéder à la page "Edit your account details". Elle permet de changer les attributs du compte (mais pas le mail!).</t>
@@ -292,7 +298,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="48" zoomScaleNormal="48" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -499,24 +505,24 @@
       <c r="B20" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
+      <c r="D20" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
+      <c r="D21" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -527,7 +533,7 @@
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
@@ -538,7 +544,7 @@
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1</v>
@@ -549,7 +555,7 @@
     </row>
     <row r="25" customFormat="false" ht="30.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1</v>
@@ -576,12 +582,12 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1</v>
@@ -592,7 +598,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
@@ -600,7 +606,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -611,7 +617,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -622,7 +628,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1</v>
@@ -633,7 +639,7 @@
     </row>
     <row r="34" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
@@ -644,7 +650,7 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
@@ -655,7 +661,7 @@
     </row>
     <row r="36" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
@@ -666,7 +672,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1</v>
@@ -693,12 +699,12 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
@@ -709,7 +715,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1</v>
@@ -720,7 +726,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1</v>
@@ -731,7 +737,7 @@
     </row>
     <row r="44" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1</v>
@@ -742,7 +748,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>1</v>
@@ -753,7 +759,7 @@
     </row>
     <row r="46" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1</v>
@@ -764,7 +770,7 @@
     </row>
     <row r="47" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1</v>
@@ -775,7 +781,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1</v>
@@ -802,7 +808,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B51" s="1" t="n">
         <f aca="false">SUM(B9,B26,B38,B49)</f>
@@ -820,7 +826,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B55" s="1" t="n">
         <f aca="false">B51-B48-B26</f>
@@ -829,7 +835,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B56" s="5" t="n">
         <f aca="false">B55/B51*5+1</f>
